--- a/resources/GIL2/Students.xlsx
+++ b/resources/GIL2/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD167C1A-156F-4FC7-A1E3-E051CCB45F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7DE482-EED3-476E-AC77-4F9F9D04F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07A44441-60D1-412C-AB6F-EB5BD508F78E}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -550,10 +550,10 @@
         <v>18000011</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>671211117</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G11" si="0">CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN1.GIL2_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -575,10 +575,10 @@
         <v>18000012</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="3">
         <v>37234</v>
@@ -590,20 +590,20 @@
         <v>689810409</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN2.GIL2_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>18000013</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="3">
         <v>36680</v>
@@ -615,20 +615,20 @@
         <v>692043200</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN3.GIL2_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000014</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>37074</v>
@@ -640,20 +640,20 @@
         <v>678999198</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN4.GIL2_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000015</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -665,20 +665,20 @@
         <v>678120346</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN5.GIL2_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000016</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="3">
         <v>37114</v>
@@ -690,20 +690,20 @@
         <v>789112665</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN6.GIL2_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000017</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -715,20 +715,20 @@
         <v>604440929</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN7.GIL2_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000018</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="3">
         <v>36896</v>
@@ -740,20 +740,20 @@
         <v>633976012</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN8.GIL2_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000019</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -765,20 +765,20 @@
         <v>721280012</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN9.GIL2_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18000020</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>36678</v>
@@ -790,7 +790,7 @@
         <v>769980234</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>GIL2_FN10.GIL2_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/GIL2/Students.xlsx
+++ b/resources/GIL2/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7DE482-EED3-476E-AC77-4F9F9D04F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B9EEA-E0D7-45F0-9725-E4BAC8E17A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07A44441-60D1-412C-AB6F-EB5BD508F78E}"/>
   </bookViews>
@@ -32,19 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
-  <si>
-    <t>15/01/2000</t>
-  </si>
-  <si>
-    <t>28/04/2001</t>
-  </si>
-  <si>
-    <t>19/10/2000</t>
-  </si>
-  <si>
-    <t>21/9/2002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>CNE</t>
   </si>
@@ -67,74 +55,467 @@
     <t>Email</t>
   </si>
   <si>
-    <t>GIL2_FN1</t>
-  </si>
-  <si>
-    <t>GIL2_FN2</t>
-  </si>
-  <si>
-    <t>GIL2_FN3</t>
-  </si>
-  <si>
-    <t>GIL2_FN4</t>
-  </si>
-  <si>
-    <t>GIL2_FN5</t>
-  </si>
-  <si>
-    <t>GIL2_FN6</t>
-  </si>
-  <si>
-    <t>GIL2_FN7</t>
-  </si>
-  <si>
-    <t>GIL2_FN8</t>
-  </si>
-  <si>
-    <t>GIL2_FN9</t>
-  </si>
-  <si>
-    <t>GIL2_FN10</t>
-  </si>
-  <si>
-    <t>GIL2_LN1</t>
-  </si>
-  <si>
-    <t>GIL2_LN2</t>
-  </si>
-  <si>
-    <t>GIL2_LN3</t>
-  </si>
-  <si>
-    <t>GIL2_LN4</t>
-  </si>
-  <si>
-    <t>GIL2_LN5</t>
-  </si>
-  <si>
-    <t>GIL2_LN6</t>
-  </si>
-  <si>
-    <t>GIL2_LN7</t>
-  </si>
-  <si>
-    <t>GIL2_LN8</t>
-  </si>
-  <si>
-    <t>GIL2_LN9</t>
-  </si>
-  <si>
-    <t>GIL2_LN10</t>
-  </si>
-  <si>
     <t>GIL2</t>
+  </si>
+  <si>
+    <t>Andrew Clay</t>
+  </si>
+  <si>
+    <t>Brynn Parrish</t>
+  </si>
+  <si>
+    <t>Jemima Ruiz</t>
+  </si>
+  <si>
+    <t>Vincent Blevins</t>
+  </si>
+  <si>
+    <t>Octavius Sandoval</t>
+  </si>
+  <si>
+    <t>Paula Fuller</t>
+  </si>
+  <si>
+    <t>Leroy Wade</t>
+  </si>
+  <si>
+    <t>Jonas Carney</t>
+  </si>
+  <si>
+    <t>Wyoming Harris</t>
+  </si>
+  <si>
+    <t>Steel Duncan</t>
+  </si>
+  <si>
+    <t>Lance Spencer</t>
+  </si>
+  <si>
+    <t>Yvonne Salas</t>
+  </si>
+  <si>
+    <t>Mary Reese</t>
+  </si>
+  <si>
+    <t>Rashad Bryan</t>
+  </si>
+  <si>
+    <t>Alexander Cook</t>
+  </si>
+  <si>
+    <t>Whoopi Martin</t>
+  </si>
+  <si>
+    <t>Rana Woodward</t>
+  </si>
+  <si>
+    <t>Perry Albert</t>
+  </si>
+  <si>
+    <t>Mia Mcdowell</t>
+  </si>
+  <si>
+    <t>Aphrodite Calderon</t>
+  </si>
+  <si>
+    <t>Dominique Hopkins</t>
+  </si>
+  <si>
+    <t>Rinah Hutchinson</t>
+  </si>
+  <si>
+    <t>Gary Howard</t>
+  </si>
+  <si>
+    <t>Jacob Berg</t>
+  </si>
+  <si>
+    <t>Paul Patrick</t>
+  </si>
+  <si>
+    <t>Paki O'donnell</t>
+  </si>
+  <si>
+    <t>Xaviera Hawkins</t>
+  </si>
+  <si>
+    <t>Iola Mcintosh</t>
+  </si>
+  <si>
+    <t>Gabriel Leon</t>
+  </si>
+  <si>
+    <t>Alexis Odom</t>
+  </si>
+  <si>
+    <t>Samantha Manning</t>
+  </si>
+  <si>
+    <t>Avram Bernard</t>
+  </si>
+  <si>
+    <t>Sonia Yang</t>
+  </si>
+  <si>
+    <t>Kane Griffith</t>
+  </si>
+  <si>
+    <t>Ralph Lopez</t>
+  </si>
+  <si>
+    <t>Quinlan Henry</t>
+  </si>
+  <si>
+    <t>Summer Padilla</t>
+  </si>
+  <si>
+    <t>Caleb Garrison</t>
+  </si>
+  <si>
+    <t>Griffith Dunn</t>
+  </si>
+  <si>
+    <t>Nissim Haley</t>
+  </si>
+  <si>
+    <t>Upton Holt</t>
+  </si>
+  <si>
+    <t>Knox Brooks</t>
+  </si>
+  <si>
+    <t>Whoopi Clayton</t>
+  </si>
+  <si>
+    <t>Hiram Sanders</t>
+  </si>
+  <si>
+    <t>Daphne Cummings</t>
+  </si>
+  <si>
+    <t>Graiden Gill</t>
+  </si>
+  <si>
+    <t>Daryl Huff</t>
+  </si>
+  <si>
+    <t>Porter Gordon</t>
+  </si>
+  <si>
+    <t>Kenyon Lara</t>
+  </si>
+  <si>
+    <t>Mannix Rush</t>
+  </si>
+  <si>
+    <t>Josiah Pace</t>
+  </si>
+  <si>
+    <t>Hedley Dodson</t>
+  </si>
+  <si>
+    <t>David Fry</t>
+  </si>
+  <si>
+    <t>Alexis Spence</t>
+  </si>
+  <si>
+    <t>Nayda Buckner</t>
+  </si>
+  <si>
+    <t>Mona Rutledge</t>
+  </si>
+  <si>
+    <t>Thomas Hampton</t>
+  </si>
+  <si>
+    <t>Melvin Cabrera</t>
+  </si>
+  <si>
+    <t>Karina Castro</t>
+  </si>
+  <si>
+    <t>Leroy Salazar</t>
+  </si>
+  <si>
+    <t>Daria Lester</t>
+  </si>
+  <si>
+    <t>Cally Vance</t>
+  </si>
+  <si>
+    <t>Omar Armstrong</t>
+  </si>
+  <si>
+    <t>Shaine Case</t>
+  </si>
+  <si>
+    <t>Melanie Garrett</t>
+  </si>
+  <si>
+    <t>Jordan Stephenson</t>
+  </si>
+  <si>
+    <t>Grace Reilly</t>
+  </si>
+  <si>
+    <t>Francesca Hancock</t>
+  </si>
+  <si>
+    <t>Molly Lyons</t>
+  </si>
+  <si>
+    <t>Justina Carrillo</t>
+  </si>
+  <si>
+    <t>Cody Sherman</t>
+  </si>
+  <si>
+    <t>Jael Diaz</t>
+  </si>
+  <si>
+    <t>Hedda Levy</t>
+  </si>
+  <si>
+    <t>Garrison Edwards</t>
+  </si>
+  <si>
+    <t>Wade Higgins</t>
+  </si>
+  <si>
+    <t>Alexander Bradford</t>
+  </si>
+  <si>
+    <t>Raphael Stafford</t>
+  </si>
+  <si>
+    <t>Mona Ramsey</t>
+  </si>
+  <si>
+    <t>Jacqueline Hebert</t>
+  </si>
+  <si>
+    <t>Dacey Anderson</t>
+  </si>
+  <si>
+    <t>Perry Ryan</t>
+  </si>
+  <si>
+    <t>Hedda Nunez</t>
+  </si>
+  <si>
+    <t>Lars Cross</t>
+  </si>
+  <si>
+    <t>Amelia Hogan</t>
+  </si>
+  <si>
+    <t>Tanisha Thornton</t>
+  </si>
+  <si>
+    <t>Cedric Rojas</t>
+  </si>
+  <si>
+    <t>Talon Day</t>
+  </si>
+  <si>
+    <t>Marsden Poole</t>
+  </si>
+  <si>
+    <t>Charity Daniel</t>
+  </si>
+  <si>
+    <t>Burton Wallace</t>
+  </si>
+  <si>
+    <t>Yen Colon</t>
+  </si>
+  <si>
+    <t>Karen Tran</t>
+  </si>
+  <si>
+    <t>Quin Poole</t>
+  </si>
+  <si>
+    <t>Odysseus Campbell</t>
+  </si>
+  <si>
+    <t>Hall Baird</t>
+  </si>
+  <si>
+    <t>Akeem Steele</t>
+  </si>
+  <si>
+    <t>Timon Castaneda</t>
+  </si>
+  <si>
+    <t>Cyrus Branch</t>
+  </si>
+  <si>
+    <t>Emerald Reyes</t>
+  </si>
+  <si>
+    <t>Maia Horn</t>
+  </si>
+  <si>
+    <t>01 63 45 16 30</t>
+  </si>
+  <si>
+    <t>02 24 14 62 22</t>
+  </si>
+  <si>
+    <t>05 08 46 45 54</t>
+  </si>
+  <si>
+    <t>06 83 30 40 28</t>
+  </si>
+  <si>
+    <t>02 38 56 15 17</t>
+  </si>
+  <si>
+    <t>08 34 52 75 62</t>
+  </si>
+  <si>
+    <t>01 56 31 64 01</t>
+  </si>
+  <si>
+    <t>01 57 25 95 07</t>
+  </si>
+  <si>
+    <t>07 89 15 91 49</t>
+  </si>
+  <si>
+    <t>03 35 82 04 10</t>
+  </si>
+  <si>
+    <t>03 67 47 23 73</t>
+  </si>
+  <si>
+    <t>07 63 22 82 68</t>
+  </si>
+  <si>
+    <t>05 02 13 08 77</t>
+  </si>
+  <si>
+    <t>06 90 42 10 25</t>
+  </si>
+  <si>
+    <t>01 23 34 64 66</t>
+  </si>
+  <si>
+    <t>07 52 92 91 58</t>
+  </si>
+  <si>
+    <t>05 91 17 19 54</t>
+  </si>
+  <si>
+    <t>09 66 48 22 22</t>
+  </si>
+  <si>
+    <t>06 79 84 52 20</t>
+  </si>
+  <si>
+    <t>09 04 25 22 82</t>
+  </si>
+  <si>
+    <t>01 23 68 84 29</t>
+  </si>
+  <si>
+    <t>07 74 19 61 35</t>
+  </si>
+  <si>
+    <t>07 16 07 55 56</t>
+  </si>
+  <si>
+    <t>01 18 24 34 49</t>
+  </si>
+  <si>
+    <t>05 26 75 23 24</t>
+  </si>
+  <si>
+    <t>09 64 29 19 86</t>
+  </si>
+  <si>
+    <t>09 02 43 04 23</t>
+  </si>
+  <si>
+    <t>09 48 50 87 45</t>
+  </si>
+  <si>
+    <t>06 41 46 77 89</t>
+  </si>
+  <si>
+    <t>05 88 27 64 75</t>
+  </si>
+  <si>
+    <t>07 37 80 20 81</t>
+  </si>
+  <si>
+    <t>06 82 06 26 78</t>
+  </si>
+  <si>
+    <t>09 23 02 12 66</t>
+  </si>
+  <si>
+    <t>03 71 11 11 81</t>
+  </si>
+  <si>
+    <t>05 11 62 34 35</t>
+  </si>
+  <si>
+    <t>05 68 63 20 34</t>
+  </si>
+  <si>
+    <t>04 31 53 08 74</t>
+  </si>
+  <si>
+    <t>05 17 36 72 55</t>
+  </si>
+  <si>
+    <t>04 77 41 64 69</t>
+  </si>
+  <si>
+    <t>04 23 84 13 17</t>
+  </si>
+  <si>
+    <t>03 09 44 12 57</t>
+  </si>
+  <si>
+    <t>04 73 41 82 62</t>
+  </si>
+  <si>
+    <t>08 35 95 63 65</t>
+  </si>
+  <si>
+    <t>06 86 65 82 75</t>
+  </si>
+  <si>
+    <t>04 85 38 36 87</t>
+  </si>
+  <si>
+    <t>02 32 78 86 78</t>
+  </si>
+  <si>
+    <t>03 35 82 25 42</t>
+  </si>
+  <si>
+    <t>01 29 01 71 90</t>
+  </si>
+  <si>
+    <t>05 81 52 55 86</t>
+  </si>
+  <si>
+    <t>01 75 25 66 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +525,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,284 +902,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EA3B84-ABAA-41E5-AB8B-DA2412BBF0C9}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>18000011</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>18000051</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36614</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1">
-        <v>671211117</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN1.GIL2_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>MaiaHorn.EmeraldReyes@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>18000012</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>18000052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="3">
-        <v>37234</v>
+        <v>35818</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1">
-        <v>689810409</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN2.GIL2_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>CyrusBranch.TimonCastaneda@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>18000013</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <v>18000053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="3">
-        <v>36680</v>
+        <v>37196</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1">
-        <v>692043200</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN3.GIL2_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>AkeemSteele.HallBaird@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>18000014</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>18000054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>37074</v>
+        <v>35683</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1">
-        <v>678999198</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN4.GIL2_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>OdysseusCampbell.QuinPoole@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>18000015</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>18000055</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35804</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
-        <v>678120346</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN5.GIL2_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>KarenTran.YenColon@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>18000016</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>18000056</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="3">
-        <v>37114</v>
+        <v>36092</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>789112665</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN6.GIL2_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>BurtonWallace.CharityDaniel@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>18000017</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>18000057</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3">
+        <v>36016</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <v>604440929</v>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN7.GIL2_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>MarsdenPoole.TalonDay@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>18000018</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>18000058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="3">
-        <v>36896</v>
+        <v>36407</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1">
-        <v>633976012</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN8.GIL2_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>CedricRojas.TanishaThornton@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>18000019</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>18000059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35856</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1">
-        <v>721280012</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN9.GIL2_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>AmeliaHogan.LarsCross@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>18000020</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>18000060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3">
+        <v>36781</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HeddaNunez.PerryRyan@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>18000061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3">
+        <v>35925</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DaceyAnderson.JacquelineHebert@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>18000062</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3">
+        <v>36794</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MonaRamsey.RaphaelStafford@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>18000063</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3">
+        <v>36425</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AlexanderBradford.WadeHiggins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>18000064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3">
+        <v>37016</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GarrisonEdwards.HeddaLevy@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>18000065</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3">
+        <v>35997</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JaelDiaz.CodySherman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>18000066</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3">
+        <v>37458</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JustinaCarrillo.MollyLyons@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>18000067</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36516</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FrancescaHancock.GraceReilly@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>18000068</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35481</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JordanStephenson.MelanieGarrett@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>18000069</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3">
+        <v>35883</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ShaineCase.OmarArmstrong@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>18000070</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3">
+        <v>37087</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CallyVance.DariaLester@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>18000071</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3">
+        <v>37039</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LeroySalazar.KarinaCastro@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>18000072</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3">
+        <v>35480</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MelvinCabrera.ThomasHampton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>18000073</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3">
+        <v>36094</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MonaRutledge.NaydaBuckner@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>18000074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>37126</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AlexisSpence.DavidFry@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>18000075</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36753</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HedleyDodson.JosiahPace@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>18000076</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3">
+        <v>36265</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MannixRush.KenyonLara@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>18000077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3">
+        <v>36556</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PorterGordon.DarylHuff@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>18000078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>37596</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GraidenGill.DaphneCummings@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>18000079</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3">
+        <v>36187</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HiramSanders.WhoopiClayton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>18000080</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3">
+        <v>35905</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KnoxBrooks.UptonHolt@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>18000081</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3">
+        <v>37610</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NissimHaley.GriffithDunn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>18000082</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3">
+        <v>37040</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CalebGarrison.SummerPadilla@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>18000083</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3">
+        <v>37006</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QuinlanHenry.RalphLopez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>18000084</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3">
+        <v>37216</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KaneGriffith.SoniaYang@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>18000085</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>36926</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AvramBernard.SamanthaManning@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>18000086</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>37591</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AlexisOdom.GabrielLeon@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>18000087</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>36861</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IolaMcintosh.XavieraHawkins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>18000088</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3">
+        <v>37323</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PakiO'donnell.PaulPatrick@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>18000089</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D40" s="3">
+        <v>36325</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JacobBerg.GaryHoward@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>18000090</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>35497</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RinahHutchinson.DominiqueHopkins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>18000091</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3">
+        <v>36850</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AphroditeCalderon.MiaMcdowell@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>18000092</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3">
+        <v>35469</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PerryAlbert.RanaWoodward@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>18000093</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3">
+        <v>37189</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>WhoopiMartin.AlexanderCook@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>18000094</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3">
-        <v>36678</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1">
-        <v>769980234</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>GIL2_FN10.GIL2_LN10@etu.uae.ac.ma</v>
+      <c r="D45" s="3">
+        <v>35778</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RashadBryan.MaryReese@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>18000095</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3">
+        <v>35875</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>YvonneSalas.LanceSpencer@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>18000096</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3">
+        <v>37262</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SteelDuncan.WyomingHarris@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>18000097</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3">
+        <v>36435</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JonasCarney.LeroyWade@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>18000098</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3">
+        <v>37524</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PaulaFuller.OctaviusSandoval@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>18000099</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>36753</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VincentBlevins.JemimaRuiz@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>18000100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3">
+        <v>35469</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BrynnParrish.AndrewClay@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
